--- a/data/trans_orig/P6511-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{836B1B4F-F5CB-468F-A402-91B2458DA2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72556469-20B6-4C91-82E1-ACE6F221584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A13C3CD-F676-4C25-87AE-B490FCCAFC8D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACB074D2-8ECA-4172-ACEB-4948E2CEB671}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="240">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>42,02%</t>
   </si>
   <si>
-    <t>56,66%</t>
+    <t>56,81%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>18,21%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>15,62%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>1,39%</t>
@@ -146,16 +146,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,25%</t>
+    <t>4,96%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>16,67%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,64 +197,64 @@
     <t>57,33%</t>
   </si>
   <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>5,41%</t>
@@ -263,7 +263,7 @@
     <t>3,13%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>8,26%</t>
   </si>
   <si>
     <t>8,95%</t>
@@ -272,502 +272,487 @@
     <t>7,28%</t>
   </si>
   <si>
-    <t>10,95%</t>
+    <t>11,12%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>4,16%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>12,08%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1182,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815E9141-66E9-4D1B-B291-F5B61617AC95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45F7EE7-1D10-41B1-88E5-39BE9628C3D1}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1907,7 +1892,7 @@
         <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1907,13 @@
         <v>59357</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -1937,13 +1922,13 @@
         <v>16325</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -1952,13 +1937,13 @@
         <v>75682</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1958,13 @@
         <v>88055</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -1988,13 +1973,13 @@
         <v>23225</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -2003,13 +1988,13 @@
         <v>111280</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2050,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2077,13 +2062,13 @@
         <v>267137</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -2092,13 +2077,13 @@
         <v>138560</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>380</v>
@@ -2107,13 +2092,13 @@
         <v>405697</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2113,13 @@
         <v>76956</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -2143,13 +2128,13 @@
         <v>20153</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -2158,13 +2143,13 @@
         <v>97108</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2164,13 @@
         <v>39738</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2194,13 +2179,13 @@
         <v>8089</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>46</v>
@@ -2209,13 +2194,13 @@
         <v>47827</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2215,13 @@
         <v>53429</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2245,13 +2230,13 @@
         <v>2931</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -2260,13 +2245,13 @@
         <v>56360</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,7 +2307,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2334,13 +2319,13 @@
         <v>102512</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -2349,13 +2334,13 @@
         <v>55310</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>157</v>
@@ -2364,13 +2349,13 @@
         <v>157822</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2370,13 @@
         <v>26384</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2400,13 +2385,13 @@
         <v>5003</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -2418,10 +2403,10 @@
         <v>85</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2421,13 @@
         <v>12533</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2451,13 +2436,13 @@
         <v>2957</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -2466,13 +2451,13 @@
         <v>15490</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2472,13 @@
         <v>21939</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2502,13 +2487,13 @@
         <v>1013</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>24</v>
@@ -2517,13 +2502,13 @@
         <v>22952</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,7 +2564,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2591,13 +2576,13 @@
         <v>3244</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2606,10 +2591,10 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -2621,13 +2606,13 @@
         <v>6865</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2627,13 @@
         <v>1794</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2660,10 +2645,10 @@
         <v>35</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2672,13 +2657,13 @@
         <v>1794</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,10 +2681,10 @@
         <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2711,10 +2696,10 @@
         <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2726,10 +2711,10 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,10 +2732,10 @@
         <v>35</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2762,10 +2747,10 @@
         <v>35</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2777,10 +2762,10 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,16 +2830,16 @@
         <v>1073</v>
       </c>
       <c r="D34" s="7">
-        <v>1123289</v>
+        <v>1123290</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H34" s="7">
         <v>796</v>
@@ -2863,13 +2848,13 @@
         <v>831880</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M34" s="7">
         <v>1869</v>
@@ -2878,13 +2863,13 @@
         <v>1955169</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2884,13 @@
         <v>287154</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>80</v>
@@ -2914,13 +2899,13 @@
         <v>85162</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M35" s="7">
         <v>354</v>
@@ -2929,13 +2914,13 @@
         <v>372316</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2935,13 @@
         <v>201047</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -2965,13 +2950,13 @@
         <v>47820</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M36" s="7">
         <v>240</v>
@@ -2980,13 +2965,13 @@
         <v>248867</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +2986,13 @@
         <v>293970</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>59</v>
@@ -3016,13 +3001,13 @@
         <v>60438</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="M37" s="7">
         <v>342</v>
@@ -3031,13 +3016,13 @@
         <v>354408</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,7 +3034,7 @@
         <v>1824</v>
       </c>
       <c r="D38" s="7">
-        <v>1905460</v>
+        <v>1905461</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3093,7 +3078,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6511-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72556469-20B6-4C91-82E1-ACE6F221584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF97BE5-46CE-4B5A-801A-9A78E97010F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACB074D2-8ECA-4172-ACEB-4948E2CEB671}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C9AAC2DE-D9BE-4643-A57D-563B19E2F7FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="243">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>49,51%</t>
   </si>
   <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>18,21%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>15,62%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
   </si>
   <si>
     <t>1,39%</t>
@@ -146,16 +146,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>4,85%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,7 +164,7 @@
     <t>16,67%</t>
   </si>
   <si>
-    <t>11,46%</t>
+    <t>11,5%</t>
   </si>
   <si>
     <t>23,23%</t>
@@ -173,19 +173,19 @@
     <t>7,56%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,562 +197,571 @@
     <t>57,33%</t>
   </si>
   <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>66,33%</t>
   </si>
   <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>10,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1167,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45F7EE7-1D10-41B1-88E5-39BE9628C3D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249F3C37-FC35-4774-97B1-2E29C4FC32E9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1892,7 +1901,7 @@
         <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,13 +1916,13 @@
         <v>59357</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -1922,13 +1931,13 @@
         <v>16325</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -1937,13 +1946,13 @@
         <v>75682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,13 +1967,13 @@
         <v>88055</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -1973,13 +1982,13 @@
         <v>23225</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -1988,13 +1997,13 @@
         <v>111280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,7 +2059,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2062,13 +2071,13 @@
         <v>267137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -2077,13 +2086,13 @@
         <v>138560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>380</v>
@@ -2092,13 +2101,13 @@
         <v>405697</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2122,13 @@
         <v>76956</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -2128,13 +2137,13 @@
         <v>20153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -2143,13 +2152,13 @@
         <v>97108</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,13 +2173,13 @@
         <v>39738</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2179,13 +2188,13 @@
         <v>8089</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>46</v>
@@ -2194,13 +2203,13 @@
         <v>47827</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +2224,13 @@
         <v>53429</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2230,13 +2239,13 @@
         <v>2931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>53</v>
@@ -2245,13 +2254,13 @@
         <v>56360</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,7 +2316,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2319,13 +2328,13 @@
         <v>102512</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -2334,13 +2343,13 @@
         <v>55310</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>157</v>
@@ -2349,13 +2358,13 @@
         <v>157822</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2379,13 @@
         <v>26384</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2385,13 +2394,13 @@
         <v>5003</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -2403,10 +2412,10 @@
         <v>85</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2430,13 @@
         <v>12533</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2436,13 +2445,13 @@
         <v>2957</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -2451,13 +2460,13 @@
         <v>15490</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,13 +2481,13 @@
         <v>21939</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2487,13 +2496,13 @@
         <v>1013</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>24</v>
@@ -2502,13 +2511,13 @@
         <v>22952</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,7 +2573,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2576,13 +2585,13 @@
         <v>3244</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2591,10 +2600,10 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -2606,13 +2615,13 @@
         <v>6865</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2636,13 @@
         <v>1794</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2645,10 +2654,10 @@
         <v>35</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2657,13 +2666,13 @@
         <v>1794</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,10 +2690,10 @@
         <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2696,10 +2705,10 @@
         <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2711,10 +2720,10 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,10 +2741,10 @@
         <v>35</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2747,10 +2756,10 @@
         <v>35</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2762,10 +2771,10 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,16 +2839,16 @@
         <v>1073</v>
       </c>
       <c r="D34" s="7">
-        <v>1123290</v>
+        <v>1123289</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H34" s="7">
         <v>796</v>
@@ -2848,13 +2857,13 @@
         <v>831880</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M34" s="7">
         <v>1869</v>
@@ -2863,13 +2872,13 @@
         <v>1955169</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2893,13 @@
         <v>287154</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7">
         <v>80</v>
@@ -2899,13 +2908,13 @@
         <v>85162</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M35" s="7">
         <v>354</v>
@@ -2914,13 +2923,13 @@
         <v>372316</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2944,13 @@
         <v>201047</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -2950,13 +2959,13 @@
         <v>47820</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>240</v>
@@ -2965,13 +2974,13 @@
         <v>248867</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2995,13 @@
         <v>293970</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>59</v>
@@ -3001,13 +3010,13 @@
         <v>60438</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>342</v>
@@ -3016,13 +3025,13 @@
         <v>354408</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>238</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,7 +3043,7 @@
         <v>1824</v>
       </c>
       <c r="D38" s="7">
-        <v>1905461</v>
+        <v>1905460</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3078,7 +3087,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6511-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF97BE5-46CE-4B5A-801A-9A78E97010F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C74A952-4F27-4197-8D4A-33680700EDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C9AAC2DE-D9BE-4643-A57D-563B19E2F7FE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CEC9E9AD-3AD7-4F3F-A65B-3D739D7605CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="245">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>49,51%</t>
   </si>
   <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>18,21%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>15,62%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
   <si>
     <t>1,39%</t>
@@ -146,16 +146,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>4,25%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,604 +164,610 @@
     <t>16,67%</t>
   </si>
   <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
+    <t>13,85%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>10,83%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1176,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249F3C37-FC35-4774-97B1-2E29C4FC32E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8F2C04-16C6-47B5-900D-C5F7774FA0AE}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2000,10 +2006,10 @@
         <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2065,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2071,13 +2077,13 @@
         <v>267137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -2086,13 +2092,13 @@
         <v>138560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>380</v>
@@ -2101,13 +2107,13 @@
         <v>405697</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2128,13 @@
         <v>76956</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -2137,13 +2143,13 @@
         <v>20153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -2346,10 +2352,10 @@
         <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>157</v>
@@ -2358,13 +2364,13 @@
         <v>157822</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2385,13 @@
         <v>26384</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2394,13 +2400,13 @@
         <v>5003</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -2412,10 +2418,10 @@
         <v>85</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2436,13 @@
         <v>12533</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2445,10 +2451,10 @@
         <v>2957</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>182</v>
@@ -2466,7 +2472,7 @@
         <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2487,13 @@
         <v>21939</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2496,13 +2502,13 @@
         <v>1013</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>24</v>
@@ -2511,13 +2517,13 @@
         <v>22952</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,7 +2579,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2585,13 +2591,13 @@
         <v>3244</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2600,10 +2606,10 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -2615,13 +2621,13 @@
         <v>6865</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2642,13 @@
         <v>1794</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2654,10 +2660,10 @@
         <v>35</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2666,13 +2672,13 @@
         <v>1794</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,10 +2696,10 @@
         <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2705,10 +2711,10 @@
         <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2720,10 +2726,10 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,10 +2747,10 @@
         <v>35</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2756,10 +2762,10 @@
         <v>35</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2771,10 +2777,10 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2848,13 @@
         <v>1123289</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H34" s="7">
         <v>796</v>
@@ -2857,13 +2863,13 @@
         <v>831880</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>1869</v>
@@ -2872,13 +2878,13 @@
         <v>1955169</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2899,13 @@
         <v>287154</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H35" s="7">
         <v>80</v>
@@ -2908,13 +2914,13 @@
         <v>85162</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M35" s="7">
         <v>354</v>
@@ -2923,13 +2929,13 @@
         <v>372316</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2950,13 @@
         <v>201047</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -2959,13 +2965,13 @@
         <v>47820</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" s="7">
         <v>240</v>
@@ -2974,13 +2980,13 @@
         <v>248867</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3001,13 @@
         <v>293970</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H37" s="7">
         <v>59</v>
@@ -3010,13 +3016,13 @@
         <v>60438</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M37" s="7">
         <v>342</v>
@@ -3025,13 +3031,13 @@
         <v>354408</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>61</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,7 +3093,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6511-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C74A952-4F27-4197-8D4A-33680700EDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F21581-2321-41AC-92D4-927F61512684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CEC9E9AD-3AD7-4F3F-A65B-3D739D7605CD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7AC23A1A-8541-4F49-9C74-3F86F80D92C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="248">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>57,33%</t>
@@ -302,7 +302,7 @@
     <t>16,57%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>60,69%</t>
@@ -410,7 +410,7 @@
     <t>15,56%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>61,09%</t>
@@ -518,7 +518,7 @@
     <t>12,06%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>62,75%</t>
@@ -620,13 +620,10 @@
     <t>14,39%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -635,16 +632,13 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
   </si>
   <si>
     <t>0%</t>
@@ -653,16 +647,31 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>58,95%</t>
@@ -1182,8 +1191,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8F2C04-16C6-47B5-900D-C5F7774FA0AE}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313ABF99-2D97-4773-8335-79E2D9F21E78}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2585,19 +2594,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>3244</v>
+        <v>1593</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2606,28 +2615,28 @@
         <v>3621</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5</v>
+      </c>
+      <c r="N29" s="7">
+        <v>5213</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="7">
-        <v>7</v>
-      </c>
-      <c r="N29" s="7">
-        <v>6865</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,19 +2645,19 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>1794</v>
+        <v>975</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2660,25 +2669,25 @@
         <v>35</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7">
+        <v>975</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M30" s="7">
-        <v>2</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1794</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,10 +2705,10 @@
         <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2711,10 +2720,10 @@
         <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2726,10 +2735,10 @@
         <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,10 +2756,10 @@
         <v>35</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2762,10 +2771,10 @@
         <v>35</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2777,10 +2786,10 @@
         <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,10 +2798,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2819,10 +2828,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2836,55 +2845,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1073</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>1123289</v>
+        <v>1652</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H34" s="7">
-        <v>796</v>
-      </c>
-      <c r="I34" s="7">
-        <v>831880</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="K34" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M34" s="7">
-        <v>1869</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>1955169</v>
+        <v>1652</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,49 +2900,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>287154</v>
+        <v>819</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7">
-        <v>80</v>
-      </c>
-      <c r="I35" s="7">
-        <v>85162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="M35" s="7">
-        <v>354</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>372316</v>
+        <v>819</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,49 +2949,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>201047</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="H36" s="7">
-        <v>46</v>
-      </c>
-      <c r="I36" s="7">
-        <v>47820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="M36" s="7">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>248867</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,49 +2998,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>293970</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H37" s="7">
-        <v>59</v>
-      </c>
-      <c r="I37" s="7">
-        <v>60438</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="M37" s="7">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>354408</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,63 +3047,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1073</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1123289</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="7">
+        <v>796</v>
+      </c>
+      <c r="I39" s="7">
+        <v>831880</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1869</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1955169</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>274</v>
+      </c>
+      <c r="D40" s="7">
+        <v>287154</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="7">
+        <v>80</v>
+      </c>
+      <c r="I40" s="7">
+        <v>85162</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M40" s="7">
+        <v>354</v>
+      </c>
+      <c r="N40" s="7">
+        <v>372316</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>194</v>
+      </c>
+      <c r="D41" s="7">
+        <v>201047</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H41" s="7">
+        <v>46</v>
+      </c>
+      <c r="I41" s="7">
+        <v>47820</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M41" s="7">
+        <v>240</v>
+      </c>
+      <c r="N41" s="7">
+        <v>248867</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>283</v>
+      </c>
+      <c r="D42" s="7">
+        <v>293970</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" s="7">
+        <v>59</v>
+      </c>
+      <c r="I42" s="7">
+        <v>60438</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M42" s="7">
+        <v>342</v>
+      </c>
+      <c r="N42" s="7">
+        <v>354408</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1824</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1905460</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>981</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1025300</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2805</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2930760</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>244</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
